--- a/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955083573916115</v>
+        <v>1.021429655518605</v>
       </c>
       <c r="D2">
-        <v>1.015067895639567</v>
+        <v>1.036768888549581</v>
       </c>
       <c r="E2">
-        <v>1.000123568165952</v>
+        <v>1.02251672178669</v>
       </c>
       <c r="F2">
-        <v>1.003564684580009</v>
+        <v>1.026211717299662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043329723777857</v>
+        <v>1.056256920247073</v>
       </c>
       <c r="J2">
-        <v>1.017824247743244</v>
+        <v>1.042987770506839</v>
       </c>
       <c r="K2">
-        <v>1.026321227331791</v>
+        <v>1.047738681400041</v>
       </c>
       <c r="L2">
-        <v>1.011581181756031</v>
+        <v>1.033671028454344</v>
       </c>
       <c r="M2">
-        <v>1.014974580078199</v>
+        <v>1.037317570800743</v>
       </c>
       <c r="N2">
-        <v>1.019269674921113</v>
+        <v>1.044468932773329</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004358806457542</v>
+        <v>1.028830036347626</v>
       </c>
       <c r="D3">
-        <v>1.022021911168215</v>
+        <v>1.042719293652222</v>
       </c>
       <c r="E3">
-        <v>1.007800808032418</v>
+        <v>1.02895530783695</v>
       </c>
       <c r="F3">
-        <v>1.012641049451204</v>
+        <v>1.034164975649649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046886880494929</v>
+        <v>1.059698490309269</v>
       </c>
       <c r="J3">
-        <v>1.024731347208047</v>
+        <v>1.048564471395241</v>
       </c>
       <c r="K3">
-        <v>1.032380562906152</v>
+        <v>1.05283326299541</v>
       </c>
       <c r="L3">
-        <v>1.018334839666598</v>
+        <v>1.039230634492158</v>
       </c>
       <c r="M3">
-        <v>1.023114700858848</v>
+        <v>1.044378603190247</v>
       </c>
       <c r="N3">
-        <v>1.026186583259412</v>
+        <v>1.050053553216648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009873424467654</v>
+        <v>1.033465233014108</v>
       </c>
       <c r="D4">
-        <v>1.026357446708631</v>
+        <v>1.04644837993065</v>
       </c>
       <c r="E4">
-        <v>1.01258455807216</v>
+        <v>1.032987243411158</v>
       </c>
       <c r="F4">
-        <v>1.018304148112391</v>
+        <v>1.039153013450119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049087905678483</v>
+        <v>1.061841170465745</v>
       </c>
       <c r="J4">
-        <v>1.029027895250013</v>
+        <v>1.052049976008732</v>
       </c>
       <c r="K4">
-        <v>1.036147836818751</v>
+        <v>1.056016760316325</v>
       </c>
       <c r="L4">
-        <v>1.022533434687805</v>
+        <v>1.042703198171115</v>
       </c>
       <c r="M4">
-        <v>1.028186565698906</v>
+        <v>1.048800790002296</v>
       </c>
       <c r="N4">
-        <v>1.030489232892418</v>
+        <v>1.053544007646483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012144433436875</v>
+        <v>1.035379269260742</v>
       </c>
       <c r="D5">
-        <v>1.028143370873609</v>
+        <v>1.047988669138518</v>
       </c>
       <c r="E5">
-        <v>1.014554524850968</v>
+        <v>1.034651906937351</v>
       </c>
       <c r="F5">
-        <v>1.020638123001835</v>
+        <v>1.04121433824515</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04999056431606</v>
+        <v>1.062722816727995</v>
       </c>
       <c r="J5">
-        <v>1.030795494464382</v>
+        <v>1.053487439192907</v>
       </c>
       <c r="K5">
-        <v>1.037697201499595</v>
+        <v>1.05732949596606</v>
       </c>
       <c r="L5">
-        <v>1.024260129648724</v>
+        <v>1.044134775886413</v>
       </c>
       <c r="M5">
-        <v>1.030275164899409</v>
+        <v>1.050626757842201</v>
       </c>
       <c r="N5">
-        <v>1.032259342300417</v>
+        <v>1.054983512193259</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012523063970427</v>
+        <v>1.035698673299664</v>
       </c>
       <c r="D6">
-        <v>1.028441150936131</v>
+        <v>1.048245726642535</v>
       </c>
       <c r="E6">
-        <v>1.014882958550973</v>
+        <v>1.034929679697522</v>
       </c>
       <c r="F6">
-        <v>1.021027357595184</v>
+        <v>1.041558414875204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05014083574323</v>
+        <v>1.062869755173897</v>
       </c>
       <c r="J6">
-        <v>1.031090087765252</v>
+        <v>1.053727206839199</v>
       </c>
       <c r="K6">
-        <v>1.037955393455704</v>
+        <v>1.057548448412876</v>
       </c>
       <c r="L6">
-        <v>1.024547869902032</v>
+        <v>1.04437352937786</v>
       </c>
       <c r="M6">
-        <v>1.030623377830258</v>
+        <v>1.050931459112935</v>
       </c>
       <c r="N6">
-        <v>1.032554353957564</v>
+        <v>1.055223620337111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009903951492047</v>
+        <v>1.033490941763723</v>
       </c>
       <c r="D7">
-        <v>1.026381451462589</v>
+        <v>1.046469067071297</v>
       </c>
       <c r="E7">
-        <v>1.012611038822539</v>
+        <v>1.033009603790579</v>
       </c>
       <c r="F7">
-        <v>1.018335514356624</v>
+        <v>1.039180694224661</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04910005424809</v>
+        <v>1.06185302496171</v>
       </c>
       <c r="J7">
-        <v>1.029051662585048</v>
+        <v>1.052069290851725</v>
       </c>
       <c r="K7">
-        <v>1.036168671734031</v>
+        <v>1.0560343999415</v>
       </c>
       <c r="L7">
-        <v>1.022556654431082</v>
+        <v>1.042722436114622</v>
       </c>
       <c r="M7">
-        <v>1.028214641115948</v>
+        <v>1.04882531627467</v>
       </c>
       <c r="N7">
-        <v>1.030513033979795</v>
+        <v>1.053563349918768</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985455595698259</v>
+        <v>1.023963731728811</v>
       </c>
       <c r="D8">
-        <v>1.01745366853229</v>
+        <v>1.038805966587173</v>
       </c>
       <c r="E8">
-        <v>1.002758068778393</v>
+        <v>1.024721594059437</v>
       </c>
       <c r="F8">
-        <v>1.006677756476001</v>
+        <v>1.02893373891011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044553657068879</v>
+        <v>1.057438109776056</v>
       </c>
       <c r="J8">
-        <v>1.020196036338997</v>
+        <v>1.044898919980204</v>
       </c>
       <c r="K8">
-        <v>1.028402297024463</v>
+        <v>1.049484742005082</v>
       </c>
       <c r="L8">
-        <v>1.013900809433999</v>
+        <v>1.035576792669142</v>
       </c>
       <c r="M8">
-        <v>1.017768026742968</v>
+        <v>1.039735543909382</v>
       </c>
       <c r="N8">
-        <v>1.021644831728719</v>
+        <v>1.046382796298157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9767263128912814</v>
+        <v>1.005895175832139</v>
       </c>
       <c r="D9">
-        <v>1.000332055771483</v>
+        <v>1.024293860183205</v>
       </c>
       <c r="E9">
-        <v>0.9838370687534322</v>
+        <v>1.008999575512778</v>
       </c>
       <c r="F9">
-        <v>0.984348924552752</v>
+        <v>1.009552772653734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035696216599376</v>
+        <v>1.048961463471425</v>
       </c>
       <c r="J9">
-        <v>1.00312856862098</v>
+        <v>1.031241464048323</v>
       </c>
       <c r="K9">
-        <v>1.013419747898735</v>
+        <v>1.037004710103183</v>
       </c>
       <c r="L9">
-        <v>0.9971979369551622</v>
+        <v>1.021948309050594</v>
       </c>
       <c r="M9">
-        <v>0.9977011382491895</v>
+        <v>1.022492741015826</v>
       </c>
       <c r="N9">
-        <v>1.004553126248877</v>
+        <v>1.032705945212321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606714335448263</v>
+        <v>0.992819884396638</v>
       </c>
       <c r="D10">
-        <v>0.9877653982170492</v>
+        <v>1.013813279268315</v>
       </c>
       <c r="E10">
-        <v>0.9699278073902918</v>
+        <v>0.9976251228973853</v>
       </c>
       <c r="F10">
-        <v>0.9679670253059407</v>
+        <v>0.9955623162633895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02909892699218</v>
+        <v>1.042759382197581</v>
       </c>
       <c r="J10">
-        <v>0.9905372559513261</v>
+        <v>1.021321302024183</v>
       </c>
       <c r="K10">
-        <v>1.00235912253035</v>
+        <v>1.027937530549207</v>
       </c>
       <c r="L10">
-        <v>0.9848621149341288</v>
+        <v>1.012037389283614</v>
       </c>
       <c r="M10">
-        <v>0.9829397765239026</v>
+        <v>1.010012159401033</v>
       </c>
       <c r="N10">
-        <v>0.9919439324709882</v>
+        <v>1.022771695420248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532785381633115</v>
+        <v>0.9868689387141474</v>
       </c>
       <c r="D11">
-        <v>0.9819895775958355</v>
+        <v>1.009050000526563</v>
       </c>
       <c r="E11">
-        <v>0.963528454536243</v>
+        <v>0.9924503235149148</v>
       </c>
       <c r="F11">
-        <v>0.9604357506199123</v>
+        <v>0.9892026820651565</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026043416319613</v>
+        <v>1.039921201004956</v>
       </c>
       <c r="J11">
-        <v>0.9847329771742726</v>
+        <v>1.016798375255032</v>
       </c>
       <c r="K11">
-        <v>0.9972593288798925</v>
+        <v>1.023803241635098</v>
       </c>
       <c r="L11">
-        <v>0.9791725814763239</v>
+        <v>1.007516034061852</v>
       </c>
       <c r="M11">
-        <v>0.976144456613077</v>
+        <v>1.00433113358975</v>
       </c>
       <c r="N11">
-        <v>0.9861314109523114</v>
+        <v>1.018242345576298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9504574804830639</v>
+        <v>0.9846105238169643</v>
       </c>
       <c r="D12">
-        <v>0.9797875425196663</v>
+        <v>1.00724349137305</v>
       </c>
       <c r="E12">
-        <v>0.9610876067847245</v>
+        <v>0.990486904290793</v>
       </c>
       <c r="F12">
-        <v>0.9575638013158899</v>
+        <v>0.9867903036951382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024874958214672</v>
+        <v>1.03884184726788</v>
       </c>
       <c r="J12">
-        <v>0.982517337020312</v>
+        <v>1.01508078261354</v>
       </c>
       <c r="K12">
-        <v>0.9953125039665507</v>
+        <v>1.022233220942139</v>
       </c>
       <c r="L12">
-        <v>0.9770003083227777</v>
+        <v>1.005798658187984</v>
       </c>
       <c r="M12">
-        <v>0.9735518175259161</v>
+        <v>1.002175033265093</v>
       </c>
       <c r="N12">
-        <v>0.9839126243351947</v>
+        <v>1.016522313756244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9510661601999741</v>
+        <v>0.9850972118651615</v>
       </c>
       <c r="D13">
-        <v>0.9802625656930426</v>
+        <v>1.007632737675936</v>
       </c>
       <c r="E13">
-        <v>0.9616141979238475</v>
+        <v>0.9909099983943507</v>
       </c>
       <c r="F13">
-        <v>0.9581833739781566</v>
+        <v>0.9873101203311277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025127178553915</v>
+        <v>1.039074548089338</v>
       </c>
       <c r="J13">
-        <v>0.98299542251673</v>
+        <v>1.015450972623741</v>
       </c>
       <c r="K13">
-        <v>0.9957325887435392</v>
+        <v>1.022571605209815</v>
       </c>
       <c r="L13">
-        <v>0.9774690553637863</v>
+        <v>1.006168818316769</v>
       </c>
       <c r="M13">
-        <v>0.9741111936769151</v>
+        <v>1.002639678184453</v>
       </c>
       <c r="N13">
-        <v>0.9843913887678547</v>
+        <v>1.016893029478721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530469354177799</v>
+        <v>0.986683264432498</v>
       </c>
       <c r="D14">
-        <v>0.9818087534722447</v>
+        <v>1.008901454477421</v>
       </c>
       <c r="E14">
-        <v>0.9633280426875251</v>
+        <v>0.9922888922847619</v>
       </c>
       <c r="F14">
-        <v>0.9601999306163188</v>
+        <v>0.9890043270101372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025947538187585</v>
+        <v>1.039832507697994</v>
       </c>
       <c r="J14">
-        <v>0.9845510927267743</v>
+        <v>1.016657186530139</v>
       </c>
       <c r="K14">
-        <v>0.9970995134983462</v>
+        <v>1.023674183681097</v>
       </c>
       <c r="L14">
-        <v>0.9789942657145768</v>
+        <v>1.007374870745273</v>
       </c>
       <c r="M14">
-        <v>0.9759315980458723</v>
+        <v>1.004153873561027</v>
       </c>
       <c r="N14">
-        <v>0.985949268208035</v>
+        <v>1.018100956347221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9542571268841529</v>
+        <v>0.9876539812710698</v>
       </c>
       <c r="D15">
-        <v>0.9827536935301643</v>
+        <v>1.009678111524584</v>
       </c>
       <c r="E15">
-        <v>0.9643752981772642</v>
+        <v>0.9931328838112333</v>
       </c>
       <c r="F15">
-        <v>0.9614322364360041</v>
+        <v>0.9900413855861728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026448428667535</v>
+        <v>1.040296111018429</v>
       </c>
       <c r="J15">
-        <v>0.9855014609690712</v>
+        <v>1.017395285172078</v>
       </c>
       <c r="K15">
-        <v>0.9979345643701605</v>
+        <v>1.024348865327185</v>
       </c>
       <c r="L15">
-        <v>0.9799259696975684</v>
+        <v>1.008112821243571</v>
       </c>
       <c r="M15">
-        <v>0.9770438621465146</v>
+        <v>1.005080595167512</v>
       </c>
       <c r="N15">
-        <v>0.9869009860822449</v>
+        <v>1.018840103173893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611520741266706</v>
+        <v>0.99320836435939</v>
       </c>
       <c r="D16">
-        <v>0.9881411557837408</v>
+        <v>1.01412438059921</v>
       </c>
       <c r="E16">
-        <v>0.9703439876863983</v>
+        <v>0.9979629890201803</v>
       </c>
       <c r="F16">
-        <v>0.9684569195054993</v>
+        <v>0.9959776339935447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029297227014332</v>
+        <v>1.042944346748006</v>
       </c>
       <c r="J16">
-        <v>0.9909144982522826</v>
+        <v>1.021616402216509</v>
       </c>
       <c r="K16">
-        <v>1.00269055972984</v>
+        <v>1.02820727052378</v>
       </c>
       <c r="L16">
-        <v>0.9852318389157728</v>
+        <v>1.012332333775969</v>
       </c>
       <c r="M16">
-        <v>0.9833816141117286</v>
+        <v>1.010383002731864</v>
       </c>
       <c r="N16">
-        <v>0.9923217104992825</v>
+        <v>1.023067214688695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9653533394428978</v>
+        <v>0.996612053318232</v>
       </c>
       <c r="D17">
-        <v>0.991426886404444</v>
+        <v>1.016850888374594</v>
       </c>
       <c r="E17">
-        <v>0.973982451453275</v>
+        <v>1.000923466517577</v>
       </c>
       <c r="F17">
-        <v>0.9727404427771722</v>
+        <v>0.9996173402742101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031028607797799</v>
+        <v>1.04456319547163</v>
       </c>
       <c r="J17">
-        <v>0.9942112770328656</v>
+        <v>1.024201050783851</v>
       </c>
       <c r="K17">
-        <v>1.005586921885255</v>
+        <v>1.03056977350166</v>
       </c>
       <c r="L17">
-        <v>0.9884625774178571</v>
+        <v>1.014915323371867</v>
       </c>
       <c r="M17">
-        <v>0.9872439305127424</v>
+        <v>1.013632082229809</v>
       </c>
       <c r="N17">
-        <v>0.9956231710838797</v>
+        <v>1.025655533753467</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9677619836330518</v>
+        <v>0.9985697952153505</v>
       </c>
       <c r="D18">
-        <v>0.9933116246058216</v>
+        <v>1.018419746772125</v>
       </c>
       <c r="E18">
-        <v>0.9760689300923668</v>
+        <v>1.002626462783658</v>
       </c>
       <c r="F18">
-        <v>0.9751973756052529</v>
+        <v>1.001711571206272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03201958538706</v>
+        <v>1.045492878856334</v>
       </c>
       <c r="J18">
-        <v>0.9961007717838062</v>
+        <v>1.02568694306265</v>
       </c>
       <c r="K18">
-        <v>1.007246815557423</v>
+        <v>1.03192792965403</v>
       </c>
       <c r="L18">
-        <v>0.9903139392544916</v>
+        <v>1.016400013545278</v>
       </c>
       <c r="M18">
-        <v>0.9894584239933972</v>
+        <v>1.015500825959379</v>
       </c>
       <c r="N18">
-        <v>0.9975153491340948</v>
+        <v>1.027143536169736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685764045985223</v>
+        <v>0.9992327844863765</v>
       </c>
       <c r="D19">
-        <v>0.9939490580169443</v>
+        <v>1.018951141062345</v>
       </c>
       <c r="E19">
-        <v>0.9767744966140751</v>
+        <v>1.003203209540932</v>
       </c>
       <c r="F19">
-        <v>0.9760283135115441</v>
+        <v>1.002420908413719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03235437570204</v>
+        <v>1.045807468261343</v>
       </c>
       <c r="J19">
-        <v>0.9967395506355536</v>
+        <v>1.026190010719094</v>
       </c>
       <c r="K19">
-        <v>1.007807953294837</v>
+        <v>1.03238774541562</v>
       </c>
       <c r="L19">
-        <v>0.9909397780303453</v>
+        <v>1.01690263162991</v>
       </c>
       <c r="M19">
-        <v>0.9902072247023902</v>
+        <v>1.016133664428099</v>
       </c>
       <c r="N19">
-        <v>0.9981550351250804</v>
+        <v>1.027647318239954</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9649069735619457</v>
+        <v>0.9962497521668564</v>
       </c>
       <c r="D20">
-        <v>0.9910776875222692</v>
+        <v>1.016560603366973</v>
       </c>
       <c r="E20">
-        <v>0.9735958274326335</v>
+        <v>1.00060832260924</v>
       </c>
       <c r="F20">
-        <v>0.9722852192818319</v>
+        <v>0.999229840292467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030844826826018</v>
+        <v>1.04439102957865</v>
       </c>
       <c r="J20">
-        <v>0.9938610697344984</v>
+        <v>1.023926008975174</v>
       </c>
       <c r="K20">
-        <v>1.005279260603471</v>
+        <v>1.030318373597376</v>
       </c>
       <c r="L20">
-        <v>0.9881194147290066</v>
+        <v>1.014640483824724</v>
       </c>
       <c r="M20">
-        <v>0.9868335577602043</v>
+        <v>1.013286245562053</v>
       </c>
       <c r="N20">
-        <v>0.9952724664509794</v>
+        <v>1.025380101353874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9524657958012424</v>
+        <v>0.986217575210907</v>
       </c>
       <c r="D21">
-        <v>0.9813550607360656</v>
+        <v>1.008528906051634</v>
       </c>
       <c r="E21">
-        <v>0.9628251858627841</v>
+        <v>0.9918840146362651</v>
       </c>
       <c r="F21">
-        <v>0.959608239993661</v>
+        <v>0.9885068512732472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025706920281188</v>
+        <v>1.039610020336806</v>
       </c>
       <c r="J21">
-        <v>0.9840946947178593</v>
+        <v>1.016303053744327</v>
       </c>
       <c r="K21">
-        <v>0.9966984913907208</v>
+        <v>1.023350477434647</v>
       </c>
       <c r="L21">
-        <v>0.9785468156330741</v>
+        <v>1.007020795646615</v>
       </c>
       <c r="M21">
-        <v>0.9753974980951539</v>
+        <v>1.003709286121699</v>
       </c>
       <c r="N21">
-        <v>0.9854922220615975</v>
+        <v>1.017746320652233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442038986161346</v>
+        <v>0.9796296686391938</v>
       </c>
       <c r="D22">
-        <v>0.9749102373474892</v>
+        <v>1.003261682152682</v>
       </c>
       <c r="E22">
-        <v>0.9556791850584878</v>
+        <v>0.9861576406876738</v>
       </c>
       <c r="F22">
-        <v>0.9512010450305436</v>
+        <v>0.9814719337649395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022280318131904</v>
+        <v>1.0364573003294</v>
       </c>
       <c r="J22">
-        <v>0.9776045679639215</v>
+        <v>1.011290723575012</v>
       </c>
       <c r="K22">
-        <v>0.9909956689048465</v>
+        <v>1.018768800221924</v>
       </c>
       <c r="L22">
-        <v>0.9721829220886345</v>
+        <v>1.002008396969077</v>
       </c>
       <c r="M22">
-        <v>0.9678054279873408</v>
+        <v>0.9974195929302297</v>
       </c>
       <c r="N22">
-        <v>0.9789928785832416</v>
+        <v>1.012726872399156</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.948628748861617</v>
+        <v>0.9831502971988026</v>
       </c>
       <c r="D23">
-        <v>0.9783606884795764</v>
+        <v>1.006075809543504</v>
       </c>
       <c r="E23">
-        <v>0.9595056849533931</v>
+        <v>0.9892175574311755</v>
       </c>
       <c r="F23">
-        <v>0.9557026298030807</v>
+        <v>0.9852308432272868</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024116826496956</v>
+        <v>1.038143343210725</v>
       </c>
       <c r="J23">
-        <v>0.981080864807494</v>
+        <v>1.013969931740908</v>
       </c>
       <c r="K23">
-        <v>0.9940502928669113</v>
+        <v>1.021217811454556</v>
       </c>
       <c r="L23">
-        <v>0.97559183304521</v>
+        <v>1.004687842751294</v>
       </c>
       <c r="M23">
-        <v>0.971871280284006</v>
+        <v>1.000780924768872</v>
       </c>
       <c r="N23">
-        <v>0.9824741121670689</v>
+        <v>1.015409885347957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9651087958811245</v>
+        <v>0.9964135453350035</v>
       </c>
       <c r="D24">
-        <v>0.99123557318559</v>
+        <v>1.016691836756603</v>
       </c>
       <c r="E24">
-        <v>0.9737706362114146</v>
+        <v>1.000750795846856</v>
       </c>
       <c r="F24">
-        <v>0.9724910430228232</v>
+        <v>0.9994050233396985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030927927700594</v>
+        <v>1.044468868778538</v>
       </c>
       <c r="J24">
-        <v>0.9940194162465454</v>
+        <v>1.024050355304368</v>
       </c>
       <c r="K24">
-        <v>1.005418370243267</v>
+        <v>1.030432031512191</v>
       </c>
       <c r="L24">
-        <v>0.988274576897552</v>
+        <v>1.014764739484967</v>
       </c>
       <c r="M24">
-        <v>0.9870191054158336</v>
+        <v>1.01344259549733</v>
       </c>
       <c r="N24">
-        <v>0.9954310378332364</v>
+        <v>1.025504624269118</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9826085586375941</v>
+        <v>1.010734158335574</v>
       </c>
       <c r="D25">
-        <v>1.004943487850073</v>
+        <v>1.028177316719135</v>
       </c>
       <c r="E25">
-        <v>0.9889364637683914</v>
+        <v>1.013210060728378</v>
       </c>
       <c r="F25">
-        <v>0.9903607289087391</v>
+        <v>1.014737273275415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038097898215404</v>
+        <v>1.051243339469758</v>
       </c>
       <c r="J25">
-        <v>1.007735731945668</v>
+        <v>1.03490559765932</v>
       </c>
       <c r="K25">
-        <v>1.017465544205766</v>
+        <v>1.040353414512719</v>
       </c>
       <c r="L25">
-        <v>1.001708989652752</v>
+        <v>1.025606711104763</v>
       </c>
       <c r="M25">
-        <v>1.003110548179445</v>
+        <v>1.027111039961258</v>
       </c>
       <c r="N25">
-        <v>1.009166832273936</v>
+        <v>1.036375282313327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021429655518605</v>
+        <v>1.011520523059675</v>
       </c>
       <c r="D2">
-        <v>1.036768888549581</v>
+        <v>1.026996847589418</v>
       </c>
       <c r="E2">
-        <v>1.02251672178669</v>
+        <v>1.016264280814626</v>
       </c>
       <c r="F2">
-        <v>1.026211717299662</v>
+        <v>1.030526520118788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056256920247073</v>
+        <v>1.05047955960805</v>
       </c>
       <c r="J2">
-        <v>1.042987770506839</v>
+        <v>1.033362033764273</v>
       </c>
       <c r="K2">
-        <v>1.047738681400041</v>
+        <v>1.038092461779353</v>
       </c>
       <c r="L2">
-        <v>1.033671028454344</v>
+        <v>1.027501584803231</v>
       </c>
       <c r="M2">
-        <v>1.037317570800743</v>
+        <v>1.041576343084891</v>
       </c>
       <c r="N2">
-        <v>1.044468932773329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014630379663775</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041477276599174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028830036347626</v>
+        <v>1.015854735231444</v>
       </c>
       <c r="D3">
-        <v>1.042719293652222</v>
+        <v>1.030140137329033</v>
       </c>
       <c r="E3">
-        <v>1.02895530783695</v>
+        <v>1.019735244662276</v>
       </c>
       <c r="F3">
-        <v>1.034164975649649</v>
+        <v>1.033565733550926</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059698490309269</v>
+        <v>1.051956985202834</v>
       </c>
       <c r="J3">
-        <v>1.048564471395241</v>
+        <v>1.035922321412678</v>
       </c>
       <c r="K3">
-        <v>1.05283326299541</v>
+        <v>1.040401363873351</v>
       </c>
       <c r="L3">
-        <v>1.039230634492158</v>
+        <v>1.030121686173842</v>
       </c>
       <c r="M3">
-        <v>1.044378603190247</v>
+        <v>1.043786418833281</v>
       </c>
       <c r="N3">
-        <v>1.050053553216648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015521198584028</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04322639889523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033465233014108</v>
+        <v>1.018601610823068</v>
       </c>
       <c r="D4">
-        <v>1.04644837993065</v>
+        <v>1.032134429494954</v>
       </c>
       <c r="E4">
-        <v>1.032987243411158</v>
+        <v>1.021940349855861</v>
       </c>
       <c r="F4">
-        <v>1.039153013450119</v>
+        <v>1.03550060196527</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061841170465745</v>
+        <v>1.052882950185036</v>
       </c>
       <c r="J4">
-        <v>1.052049976008732</v>
+        <v>1.037541164548045</v>
       </c>
       <c r="K4">
-        <v>1.056016760316325</v>
+        <v>1.041859893177888</v>
       </c>
       <c r="L4">
-        <v>1.042703198171115</v>
+        <v>1.031780993842631</v>
       </c>
       <c r="M4">
-        <v>1.048800790002296</v>
+        <v>1.04518864465556</v>
       </c>
       <c r="N4">
-        <v>1.053544007646483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016083955657472</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044336161595428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035379269260742</v>
+        <v>1.019743049800892</v>
       </c>
       <c r="D5">
-        <v>1.047988669138518</v>
+        <v>1.032963614208406</v>
       </c>
       <c r="E5">
-        <v>1.034651906937351</v>
+        <v>1.022857899076158</v>
       </c>
       <c r="F5">
-        <v>1.04121433824515</v>
+        <v>1.036306656386593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062722816727995</v>
+        <v>1.05326519466465</v>
       </c>
       <c r="J5">
-        <v>1.053487439192907</v>
+        <v>1.038212917136808</v>
       </c>
       <c r="K5">
-        <v>1.05732949596606</v>
+        <v>1.042464784991391</v>
       </c>
       <c r="L5">
-        <v>1.044134775886413</v>
+        <v>1.032470173699696</v>
       </c>
       <c r="M5">
-        <v>1.050626757842201</v>
+        <v>1.045771658065446</v>
       </c>
       <c r="N5">
-        <v>1.054983512193259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016317350846786</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044797575035251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035698673299664</v>
+        <v>1.019933932516154</v>
       </c>
       <c r="D6">
-        <v>1.048245726642535</v>
+        <v>1.033102305203905</v>
       </c>
       <c r="E6">
-        <v>1.034929679697522</v>
+        <v>1.023011412369546</v>
       </c>
       <c r="F6">
-        <v>1.041558414875204</v>
+        <v>1.036441571025121</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062869755173897</v>
+        <v>1.053328967322502</v>
       </c>
       <c r="J6">
-        <v>1.053727206839199</v>
+        <v>1.038325197792075</v>
       </c>
       <c r="K6">
-        <v>1.057548448412876</v>
+        <v>1.042565870040434</v>
       </c>
       <c r="L6">
-        <v>1.04437352937786</v>
+        <v>1.032585404707421</v>
       </c>
       <c r="M6">
-        <v>1.050931459112935</v>
+        <v>1.045869173622608</v>
       </c>
       <c r="N6">
-        <v>1.055223620337111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016356354324362</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044874751599883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033490941763723</v>
+        <v>1.018616914647409</v>
       </c>
       <c r="D7">
-        <v>1.046469067071297</v>
+        <v>1.032145544962574</v>
       </c>
       <c r="E7">
-        <v>1.033009603790579</v>
+        <v>1.021952647043134</v>
       </c>
       <c r="F7">
-        <v>1.039180694224661</v>
+        <v>1.035511401147115</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06185302496171</v>
+        <v>1.052888085178479</v>
       </c>
       <c r="J7">
-        <v>1.052069290851725</v>
+        <v>1.037550174831402</v>
       </c>
       <c r="K7">
-        <v>1.0560343999415</v>
+        <v>1.041868007996675</v>
       </c>
       <c r="L7">
-        <v>1.042722436114622</v>
+        <v>1.031790235362644</v>
       </c>
       <c r="M7">
-        <v>1.04882531627467</v>
+        <v>1.045196460143488</v>
       </c>
       <c r="N7">
-        <v>1.053563349918768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016087086714412</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044342346997392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023963731728811</v>
+        <v>1.012997507384495</v>
       </c>
       <c r="D8">
-        <v>1.038805966587173</v>
+        <v>1.02806750915395</v>
       </c>
       <c r="E8">
-        <v>1.024721594059437</v>
+        <v>1.017445950823973</v>
       </c>
       <c r="F8">
-        <v>1.02893373891011</v>
+        <v>1.031560340757273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057438109776056</v>
+        <v>1.050985177398831</v>
       </c>
       <c r="J8">
-        <v>1.044898919980204</v>
+        <v>1.034235282205702</v>
       </c>
       <c r="K8">
-        <v>1.049484742005082</v>
+        <v>1.0388802499763</v>
       </c>
       <c r="L8">
-        <v>1.035576792669142</v>
+        <v>1.028394679415979</v>
       </c>
       <c r="M8">
-        <v>1.039735543909382</v>
+        <v>1.04232912590003</v>
       </c>
       <c r="N8">
-        <v>1.046382796298157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014934316158246</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042073052673234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005895175832139</v>
+        <v>1.002632322977177</v>
       </c>
       <c r="D9">
-        <v>1.024293860183205</v>
+        <v>1.020565171737098</v>
       </c>
       <c r="E9">
-        <v>1.008999575512778</v>
+        <v>1.009177577592507</v>
       </c>
       <c r="F9">
-        <v>1.009552772653734</v>
+        <v>1.024344574676874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048961463471425</v>
+        <v>1.047394546541045</v>
       </c>
       <c r="J9">
-        <v>1.031241464048323</v>
+        <v>1.02809246834599</v>
       </c>
       <c r="K9">
-        <v>1.037004710103183</v>
+        <v>1.033333177762764</v>
       </c>
       <c r="L9">
-        <v>1.021948309050594</v>
+        <v>1.022123489419372</v>
       </c>
       <c r="M9">
-        <v>1.022492741015826</v>
+        <v>1.037054650864957</v>
       </c>
       <c r="N9">
-        <v>1.032705945212321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012794417009095</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037898656330532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.992819884396638</v>
+        <v>0.9954784023709617</v>
       </c>
       <c r="D10">
-        <v>1.013813279268315</v>
+        <v>1.015417848503565</v>
       </c>
       <c r="E10">
-        <v>0.9976251228973853</v>
+        <v>1.003517494729096</v>
       </c>
       <c r="F10">
-        <v>0.9955623162633895</v>
+        <v>1.019583231925687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042759382197581</v>
+        <v>1.044898653652828</v>
       </c>
       <c r="J10">
-        <v>1.021321302024183</v>
+        <v>1.023872572723916</v>
       </c>
       <c r="K10">
-        <v>1.027937530549207</v>
+        <v>1.029514199136173</v>
       </c>
       <c r="L10">
-        <v>1.012037389283614</v>
+        <v>1.017823528830088</v>
       </c>
       <c r="M10">
-        <v>1.010012159401033</v>
+        <v>1.033607683656336</v>
       </c>
       <c r="N10">
-        <v>1.022771695420248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011337073523356</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035222240195899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9868689387141474</v>
+        <v>0.9930769941082311</v>
       </c>
       <c r="D11">
-        <v>1.009050000526563</v>
+        <v>1.013805186399449</v>
       </c>
       <c r="E11">
-        <v>0.9924503235149148</v>
+        <v>1.001741179766564</v>
       </c>
       <c r="F11">
-        <v>0.9892026820651565</v>
+        <v>1.019320633657382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039921201004956</v>
+        <v>1.044313349935557</v>
       </c>
       <c r="J11">
-        <v>1.016798375255032</v>
+        <v>1.022740641476273</v>
       </c>
       <c r="K11">
-        <v>1.023803241635098</v>
+        <v>1.028471370040584</v>
       </c>
       <c r="L11">
-        <v>1.007516034061852</v>
+        <v>1.016630334520086</v>
       </c>
       <c r="M11">
-        <v>1.00433113358975</v>
+        <v>1.033887162805416</v>
       </c>
       <c r="N11">
-        <v>1.018242345576298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011072416803013</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035880936380623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9846105238169643</v>
+        <v>0.9924346776805857</v>
       </c>
       <c r="D12">
-        <v>1.00724349137305</v>
+        <v>1.013421754249516</v>
       </c>
       <c r="E12">
-        <v>0.990486904290793</v>
+        <v>1.00132329002148</v>
       </c>
       <c r="F12">
-        <v>0.9867903036951382</v>
+        <v>1.01984566236707</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03884184726788</v>
+        <v>1.044267753131426</v>
       </c>
       <c r="J12">
-        <v>1.01508078261354</v>
+        <v>1.022562702820567</v>
       </c>
       <c r="K12">
-        <v>1.022233220942139</v>
+        <v>1.02829625428254</v>
       </c>
       <c r="L12">
-        <v>1.005798658187984</v>
+        <v>1.016425181720013</v>
       </c>
       <c r="M12">
-        <v>1.002175033265093</v>
+        <v>1.034602277860816</v>
       </c>
       <c r="N12">
-        <v>1.016522313756244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011112370901074</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036773653556212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850972118651615</v>
+        <v>0.9931046192031363</v>
       </c>
       <c r="D13">
-        <v>1.007632737675936</v>
+        <v>1.013958960872403</v>
       </c>
       <c r="E13">
-        <v>0.9909099983943507</v>
+        <v>1.001921009498669</v>
       </c>
       <c r="F13">
-        <v>0.9873101203311277</v>
+        <v>1.021031308020165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039074548089338</v>
+        <v>1.044639860182072</v>
       </c>
       <c r="J13">
-        <v>1.015450972623741</v>
+        <v>1.02310999808116</v>
       </c>
       <c r="K13">
-        <v>1.022571605209815</v>
+        <v>1.028780375106988</v>
       </c>
       <c r="L13">
-        <v>1.006168818316769</v>
+        <v>1.016967587755877</v>
       </c>
       <c r="M13">
-        <v>1.002639678184453</v>
+        <v>1.035723656837423</v>
       </c>
       <c r="N13">
-        <v>1.016893029478721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.0113897974912</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037937357949426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.986683264432498</v>
+        <v>0.994156872008129</v>
       </c>
       <c r="D14">
-        <v>1.008901454477421</v>
+        <v>1.014742430778186</v>
       </c>
       <c r="E14">
-        <v>0.9922888922847619</v>
+        <v>1.002789310676084</v>
       </c>
       <c r="F14">
-        <v>0.9890043270101372</v>
+        <v>1.022143549699033</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039832507697994</v>
+        <v>1.045081624365182</v>
       </c>
       <c r="J14">
-        <v>1.016657186530139</v>
+        <v>1.023810773242526</v>
       </c>
       <c r="K14">
-        <v>1.023674183681097</v>
+        <v>1.029408192211476</v>
       </c>
       <c r="L14">
-        <v>1.007374870745273</v>
+        <v>1.017675715778761</v>
       </c>
       <c r="M14">
-        <v>1.004153873561027</v>
+        <v>1.036676051575942</v>
       </c>
       <c r="N14">
-        <v>1.018100956347221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011686925794873</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038863674539345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9876539812710698</v>
+        <v>0.9947087168968833</v>
       </c>
       <c r="D15">
-        <v>1.009678111524584</v>
+        <v>1.015143367828047</v>
       </c>
       <c r="E15">
-        <v>0.9931328838112333</v>
+        <v>1.003231483084823</v>
       </c>
       <c r="F15">
-        <v>0.9900413855861728</v>
+        <v>1.022591923586127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040296111018429</v>
+        <v>1.045288841277624</v>
       </c>
       <c r="J15">
-        <v>1.017395285172078</v>
+        <v>1.024150855884442</v>
       </c>
       <c r="K15">
-        <v>1.024348865327185</v>
+        <v>1.029714869801564</v>
       </c>
       <c r="L15">
-        <v>1.008112821243571</v>
+        <v>1.018021124317685</v>
       </c>
       <c r="M15">
-        <v>1.005080595167512</v>
+        <v>1.037030371713799</v>
       </c>
       <c r="N15">
-        <v>1.018840103173893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011815645359715</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039181287311165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99320836435939</v>
+        <v>0.9976023780243951</v>
       </c>
       <c r="D16">
-        <v>1.01412438059921</v>
+        <v>1.017212484812451</v>
       </c>
       <c r="E16">
-        <v>0.9979629890201803</v>
+        <v>1.005499542126714</v>
       </c>
       <c r="F16">
-        <v>0.9959776339935447</v>
+        <v>1.02442382082027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042944346748006</v>
+        <v>1.046285704099554</v>
       </c>
       <c r="J16">
-        <v>1.021616402216509</v>
+        <v>1.025834355853053</v>
       </c>
       <c r="K16">
-        <v>1.02820727052378</v>
+        <v>1.031241978576108</v>
       </c>
       <c r="L16">
-        <v>1.012332333775969</v>
+        <v>1.019733817474562</v>
       </c>
       <c r="M16">
-        <v>1.010383002731864</v>
+        <v>1.03833024161116</v>
       </c>
       <c r="N16">
-        <v>1.023067214688695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012378745946729</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04016996714077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.996612053318232</v>
+        <v>0.9992769895575958</v>
       </c>
       <c r="D17">
-        <v>1.016850888374594</v>
+        <v>1.01839514479826</v>
       </c>
       <c r="E17">
-        <v>1.000923466517577</v>
+        <v>1.006791636065361</v>
       </c>
       <c r="F17">
-        <v>0.9996173402742101</v>
+        <v>1.025245890679084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04456319547163</v>
+        <v>1.046819958545718</v>
       </c>
       <c r="J17">
-        <v>1.024201050783851</v>
+        <v>1.026762980371683</v>
       </c>
       <c r="K17">
-        <v>1.03056977350166</v>
+        <v>1.032088148897416</v>
       </c>
       <c r="L17">
-        <v>1.014915323371867</v>
+        <v>1.020681622074465</v>
       </c>
       <c r="M17">
-        <v>1.013632082229809</v>
+        <v>1.038825288651337</v>
       </c>
       <c r="N17">
-        <v>1.025655533753467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012656524756664</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040432173847946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985697952153505</v>
+        <v>1.000028602701491</v>
       </c>
       <c r="D18">
-        <v>1.018419746772125</v>
+        <v>1.018893453149077</v>
       </c>
       <c r="E18">
-        <v>1.002626462783658</v>
+        <v>1.007331747471487</v>
       </c>
       <c r="F18">
-        <v>1.001711571206272</v>
+        <v>1.025161475272428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045492878856334</v>
+        <v>1.046978546679911</v>
       </c>
       <c r="J18">
-        <v>1.02568694306265</v>
+        <v>1.027090529504434</v>
       </c>
       <c r="K18">
-        <v>1.03192792965403</v>
+        <v>1.032393839998854</v>
       </c>
       <c r="L18">
-        <v>1.016400013545278</v>
+        <v>1.021025114214431</v>
       </c>
       <c r="M18">
-        <v>1.015500825959379</v>
+        <v>1.038559577035332</v>
       </c>
       <c r="N18">
-        <v>1.027143536169736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012697736002609</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039984275743036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9992327844863765</v>
+        <v>0.9999031045696729</v>
       </c>
       <c r="D19">
-        <v>1.018951141062345</v>
+        <v>1.018734931911031</v>
       </c>
       <c r="E19">
-        <v>1.003203209540932</v>
+        <v>1.007154794013181</v>
       </c>
       <c r="F19">
-        <v>1.002420908413719</v>
+        <v>1.024185747110191</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045807468261343</v>
+        <v>1.046769637455004</v>
       </c>
       <c r="J19">
-        <v>1.026190010719094</v>
+        <v>1.026835124350066</v>
       </c>
       <c r="K19">
-        <v>1.03238774541562</v>
+        <v>1.03217507386415</v>
       </c>
       <c r="L19">
-        <v>1.01690263162991</v>
+        <v>1.020787271693548</v>
       </c>
       <c r="M19">
-        <v>1.016133664428099</v>
+        <v>1.037537288254889</v>
       </c>
       <c r="N19">
-        <v>1.027647318239954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01251496066263</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03885003499136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9962497521668564</v>
+        <v>0.9973385944018052</v>
       </c>
       <c r="D20">
-        <v>1.016560603366973</v>
+        <v>1.016755489162448</v>
       </c>
       <c r="E20">
-        <v>1.00060832260924</v>
+        <v>1.004987277378382</v>
       </c>
       <c r="F20">
-        <v>0.999229840292467</v>
+        <v>1.020825260470717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04439102957865</v>
+        <v>1.045552716932408</v>
       </c>
       <c r="J20">
-        <v>1.023926008975174</v>
+        <v>1.024972495675083</v>
       </c>
       <c r="K20">
-        <v>1.030318373597376</v>
+        <v>1.030509975877125</v>
       </c>
       <c r="L20">
-        <v>1.014640483824724</v>
+        <v>1.018942994762063</v>
       </c>
       <c r="M20">
-        <v>1.013286245562053</v>
+        <v>1.034511547042263</v>
       </c>
       <c r="N20">
-        <v>1.025380101353874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011717671836082</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035926965115068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.986217575210907</v>
+        <v>0.991798108119566</v>
       </c>
       <c r="D21">
-        <v>1.008528906051634</v>
+        <v>1.012754043067488</v>
       </c>
       <c r="E21">
-        <v>0.9918840146362651</v>
+        <v>1.000594123248765</v>
       </c>
       <c r="F21">
-        <v>0.9885068512732472</v>
+        <v>1.016896732304974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039610020336806</v>
+        <v>1.043550687198218</v>
       </c>
       <c r="J21">
-        <v>1.016303053744327</v>
+        <v>1.02164279512969</v>
       </c>
       <c r="K21">
-        <v>1.023350477434647</v>
+        <v>1.027497748895194</v>
       </c>
       <c r="L21">
-        <v>1.007020795646615</v>
+        <v>1.015564248518787</v>
       </c>
       <c r="M21">
-        <v>1.003709286121699</v>
+        <v>1.03156490917425</v>
       </c>
       <c r="N21">
-        <v>1.017746320652233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010543988645851</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033553864814138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9796296686391938</v>
+        <v>0.9882813940600893</v>
       </c>
       <c r="D22">
-        <v>1.003261682152682</v>
+        <v>1.010225959696997</v>
       </c>
       <c r="E22">
-        <v>0.9861576406876738</v>
+        <v>0.9978206295408741</v>
       </c>
       <c r="F22">
-        <v>0.9814719337649395</v>
+        <v>1.014499152234998</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0364573003294</v>
+        <v>1.042286561185103</v>
       </c>
       <c r="J22">
-        <v>1.011290723575012</v>
+        <v>1.019544686627777</v>
       </c>
       <c r="K22">
-        <v>1.018768800221924</v>
+        <v>1.02559752427086</v>
       </c>
       <c r="L22">
-        <v>1.002008396969077</v>
+        <v>1.013435384170167</v>
       </c>
       <c r="M22">
-        <v>0.9974195929302297</v>
+        <v>1.029788748174389</v>
       </c>
       <c r="N22">
-        <v>1.012726872399156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009811364019762</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032148137342486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831502971988026</v>
+        <v>0.9901536942124251</v>
       </c>
       <c r="D23">
-        <v>1.006075809543504</v>
+        <v>1.011571445863813</v>
       </c>
       <c r="E23">
-        <v>0.9892175574311755</v>
+        <v>0.999296475365215</v>
       </c>
       <c r="F23">
-        <v>0.9852308432272868</v>
+        <v>1.015774427815038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038143343210725</v>
+        <v>1.042960491193403</v>
       </c>
       <c r="J23">
-        <v>1.013969931740908</v>
+        <v>1.020661952755126</v>
       </c>
       <c r="K23">
-        <v>1.021217811454556</v>
+        <v>1.026609518494723</v>
       </c>
       <c r="L23">
-        <v>1.004687842751294</v>
+        <v>1.014568747137276</v>
       </c>
       <c r="M23">
-        <v>1.000780924768872</v>
+        <v>1.030734006682508</v>
       </c>
       <c r="N23">
-        <v>1.015409885347957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010201521743943</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032896254476072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9964135453350035</v>
+        <v>0.9973511905035264</v>
       </c>
       <c r="D24">
-        <v>1.016691836756603</v>
+        <v>1.016753490924498</v>
       </c>
       <c r="E24">
-        <v>1.000750795846856</v>
+        <v>1.004986175107632</v>
       </c>
       <c r="F24">
-        <v>0.9994050233396985</v>
+        <v>1.020702395941087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044468868778538</v>
+        <v>1.045531086617293</v>
       </c>
       <c r="J24">
-        <v>1.024050355304368</v>
+        <v>1.02495158682976</v>
       </c>
       <c r="K24">
-        <v>1.030432031512191</v>
+        <v>1.03049264840842</v>
       </c>
       <c r="L24">
-        <v>1.014764739484967</v>
+        <v>1.018926290102336</v>
       </c>
       <c r="M24">
-        <v>1.01344259549733</v>
+        <v>1.034375453172496</v>
       </c>
       <c r="N24">
-        <v>1.025504624269118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011698863228836</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035778240146242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010734158335574</v>
+        <v>1.005370018207571</v>
       </c>
       <c r="D25">
-        <v>1.028177316719135</v>
+        <v>1.022544075695276</v>
       </c>
       <c r="E25">
-        <v>1.013210060728378</v>
+        <v>1.011355988745342</v>
       </c>
       <c r="F25">
-        <v>1.014737273275415</v>
+        <v>1.026241626913537</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051243339469758</v>
+        <v>1.048352053108631</v>
       </c>
       <c r="J25">
-        <v>1.03490559765932</v>
+        <v>1.029718001522484</v>
       </c>
       <c r="K25">
-        <v>1.040353414512719</v>
+        <v>1.034802221191918</v>
       </c>
       <c r="L25">
-        <v>1.025606711104763</v>
+        <v>1.023780538740705</v>
       </c>
       <c r="M25">
-        <v>1.027111039961258</v>
+        <v>1.038445789061158</v>
       </c>
       <c r="N25">
-        <v>1.036375282313327</v>
+        <v>1.013361076974086</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038999652084332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011520523059675</v>
+        <v>1.010919592429931</v>
       </c>
       <c r="D2">
-        <v>1.026996847589418</v>
+        <v>1.025898769991979</v>
       </c>
       <c r="E2">
-        <v>1.016264280814626</v>
+        <v>1.015787543428622</v>
       </c>
       <c r="F2">
-        <v>1.030526520118788</v>
+        <v>1.03020726260001</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05047955960805</v>
+        <v>1.049919504040896</v>
       </c>
       <c r="J2">
-        <v>1.033362033764273</v>
+        <v>1.03277853445994</v>
       </c>
       <c r="K2">
-        <v>1.038092461779353</v>
+        <v>1.037008710281473</v>
       </c>
       <c r="L2">
-        <v>1.027501584803231</v>
+        <v>1.027031228476617</v>
       </c>
       <c r="M2">
-        <v>1.041576343084891</v>
+        <v>1.041261211214646</v>
       </c>
       <c r="N2">
-        <v>1.014630379663775</v>
+        <v>1.015649489304274</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041477276599174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041227871147394</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02181246822511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015854735231444</v>
+        <v>1.014952318518311</v>
       </c>
       <c r="D3">
-        <v>1.030140137329033</v>
+        <v>1.02867993549338</v>
       </c>
       <c r="E3">
-        <v>1.019735244662276</v>
+        <v>1.018990637853842</v>
       </c>
       <c r="F3">
-        <v>1.033565733550926</v>
+        <v>1.033102095820468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051956985202834</v>
+        <v>1.051186250792406</v>
       </c>
       <c r="J3">
-        <v>1.035922321412678</v>
+        <v>1.035043504593889</v>
       </c>
       <c r="K3">
-        <v>1.040401363873351</v>
+        <v>1.038958544995467</v>
       </c>
       <c r="L3">
-        <v>1.030121686173842</v>
+        <v>1.029386162006849</v>
       </c>
       <c r="M3">
-        <v>1.043786418833281</v>
+        <v>1.043328248682988</v>
       </c>
       <c r="N3">
-        <v>1.015521198584028</v>
+        <v>1.016270261075445</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04322639889523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042863789215118</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022239340906794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018601610823068</v>
+        <v>1.017510625197276</v>
       </c>
       <c r="D4">
-        <v>1.032134429494954</v>
+        <v>1.030446485963991</v>
       </c>
       <c r="E4">
-        <v>1.021940349855861</v>
+        <v>1.021028051717598</v>
       </c>
       <c r="F4">
-        <v>1.03550060196527</v>
+        <v>1.034946653785314</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052882950185036</v>
+        <v>1.05197959162735</v>
       </c>
       <c r="J4">
-        <v>1.037541164548045</v>
+        <v>1.036476771406285</v>
       </c>
       <c r="K4">
-        <v>1.041859893177888</v>
+        <v>1.040190827442521</v>
       </c>
       <c r="L4">
-        <v>1.031780993842631</v>
+        <v>1.03087914190184</v>
       </c>
       <c r="M4">
-        <v>1.04518864465556</v>
+        <v>1.044640834016992</v>
       </c>
       <c r="N4">
-        <v>1.016083955657472</v>
+        <v>1.016662902604367</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044336161595428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043902608367371</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022506420755546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019743049800892</v>
+        <v>1.018574269630987</v>
       </c>
       <c r="D5">
-        <v>1.032963614208406</v>
+        <v>1.03118143507578</v>
       </c>
       <c r="E5">
-        <v>1.022857899076158</v>
+        <v>1.021876392401645</v>
       </c>
       <c r="F5">
-        <v>1.036306656386593</v>
+        <v>1.035715449521719</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05326519466465</v>
+        <v>1.052306928251544</v>
       </c>
       <c r="J5">
-        <v>1.038212917136808</v>
+        <v>1.03707177139142</v>
       </c>
       <c r="K5">
-        <v>1.042464784991391</v>
+        <v>1.040702005267629</v>
       </c>
       <c r="L5">
-        <v>1.032470173699696</v>
+        <v>1.031499601910465</v>
       </c>
       <c r="M5">
-        <v>1.045771658065446</v>
+        <v>1.045186826760424</v>
       </c>
       <c r="N5">
-        <v>1.016317350846786</v>
+        <v>1.016825855579873</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044797575035251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044334722860915</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022616555856007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019933932516154</v>
+        <v>1.018752174864026</v>
       </c>
       <c r="D6">
-        <v>1.033102305203905</v>
+        <v>1.031304389977407</v>
       </c>
       <c r="E6">
-        <v>1.023011412369546</v>
+        <v>1.0220183591553</v>
       </c>
       <c r="F6">
-        <v>1.036441571025121</v>
+        <v>1.035844148721977</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053328967322502</v>
+        <v>1.052361530255007</v>
       </c>
       <c r="J6">
-        <v>1.038325197792075</v>
+        <v>1.03717123747167</v>
       </c>
       <c r="K6">
-        <v>1.042565870040434</v>
+        <v>1.040787435787993</v>
       </c>
       <c r="L6">
-        <v>1.032585404707421</v>
+        <v>1.031603363682474</v>
       </c>
       <c r="M6">
-        <v>1.045869173622608</v>
+        <v>1.045278164392366</v>
       </c>
       <c r="N6">
-        <v>1.016356354324362</v>
+        <v>1.016853093590201</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044874751599883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044407010087109</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022634923403037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018616914647409</v>
+        <v>1.01753511406952</v>
       </c>
       <c r="D7">
-        <v>1.032145544962574</v>
+        <v>1.030464548436297</v>
       </c>
       <c r="E7">
-        <v>1.021952647043134</v>
+        <v>1.021048973332373</v>
       </c>
       <c r="F7">
-        <v>1.035511401147115</v>
+        <v>1.034961642523875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052888085178479</v>
+        <v>1.05198966205773</v>
       </c>
       <c r="J7">
-        <v>1.037550174831402</v>
+        <v>1.036494731864597</v>
       </c>
       <c r="K7">
-        <v>1.041868007996675</v>
+        <v>1.040205804650332</v>
       </c>
       <c r="L7">
-        <v>1.031790235362644</v>
+        <v>1.030896905222732</v>
       </c>
       <c r="M7">
-        <v>1.045196460143488</v>
+        <v>1.044652790428229</v>
       </c>
       <c r="N7">
-        <v>1.016087086714412</v>
+        <v>1.016694440423936</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044342346997392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043912071020755</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02251073636653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012997507384495</v>
+        <v>1.012324858797229</v>
       </c>
       <c r="D8">
-        <v>1.02806750915395</v>
+        <v>1.026871050681855</v>
       </c>
       <c r="E8">
-        <v>1.017445950823973</v>
+        <v>1.016907082160947</v>
       </c>
       <c r="F8">
-        <v>1.031560340757273</v>
+        <v>1.031206118527887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050985177398831</v>
+        <v>1.050370625381372</v>
       </c>
       <c r="J8">
-        <v>1.034235282205702</v>
+        <v>1.03358148530059</v>
       </c>
       <c r="K8">
-        <v>1.0388802499763</v>
+        <v>1.037698934216855</v>
       </c>
       <c r="L8">
-        <v>1.028394679415979</v>
+        <v>1.027862804662639</v>
       </c>
       <c r="M8">
-        <v>1.04232912590003</v>
+        <v>1.04197934447617</v>
       </c>
       <c r="N8">
-        <v>1.014934316158246</v>
+        <v>1.015950721572501</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042073052673234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041796224677955</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02196752019473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002632322977177</v>
+        <v>1.002701619324029</v>
       </c>
       <c r="D9">
-        <v>1.020565171737098</v>
+        <v>1.020249842635415</v>
       </c>
       <c r="E9">
-        <v>1.009177577592507</v>
+        <v>1.009297067309947</v>
       </c>
       <c r="F9">
-        <v>1.024344574676874</v>
+        <v>1.024345549971095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047394546541045</v>
+        <v>1.047292194216671</v>
       </c>
       <c r="J9">
-        <v>1.02809246834599</v>
+        <v>1.028159335827788</v>
       </c>
       <c r="K9">
-        <v>1.033333177762764</v>
+        <v>1.033022706718786</v>
       </c>
       <c r="L9">
-        <v>1.022123489419372</v>
+        <v>1.022241085686097</v>
       </c>
       <c r="M9">
-        <v>1.037054650864957</v>
+        <v>1.037055611280441</v>
       </c>
       <c r="N9">
-        <v>1.012794417009095</v>
+        <v>1.014473965796002</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037898656330532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037899416437749</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020929290750167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9954784023709617</v>
+        <v>0.9961145338736431</v>
       </c>
       <c r="D10">
-        <v>1.015417848503565</v>
+        <v>1.01575185720056</v>
       </c>
       <c r="E10">
-        <v>1.003517494729096</v>
+        <v>1.004139474421726</v>
       </c>
       <c r="F10">
-        <v>1.019583231925687</v>
+        <v>1.019854722763284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044898653652828</v>
+        <v>1.045176410263958</v>
       </c>
       <c r="J10">
-        <v>1.023872572723916</v>
+        <v>1.024483162328405</v>
       </c>
       <c r="K10">
-        <v>1.029514199136173</v>
+        <v>1.0298424143506</v>
       </c>
       <c r="L10">
-        <v>1.017823528830088</v>
+        <v>1.01843438944761</v>
       </c>
       <c r="M10">
-        <v>1.033607683656336</v>
+        <v>1.033874514627007</v>
       </c>
       <c r="N10">
-        <v>1.011337073523356</v>
+        <v>1.013596304137333</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035222240195899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035433407282248</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020222752714253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9930769941082311</v>
+        <v>0.9939108391373029</v>
       </c>
       <c r="D11">
-        <v>1.013805186399449</v>
+        <v>1.014356067506666</v>
       </c>
       <c r="E11">
-        <v>1.001741179766564</v>
+        <v>1.002529030885984</v>
       </c>
       <c r="F11">
-        <v>1.019320633657382</v>
+        <v>1.019685392515908</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044313349935557</v>
+        <v>1.044720650108832</v>
       </c>
       <c r="J11">
-        <v>1.022740641476273</v>
+        <v>1.023539146827487</v>
       </c>
       <c r="K11">
-        <v>1.028471370040584</v>
+        <v>1.029012234309035</v>
       </c>
       <c r="L11">
-        <v>1.016630334520086</v>
+        <v>1.017403410469051</v>
       </c>
       <c r="M11">
-        <v>1.033887162805416</v>
+        <v>1.034245380477741</v>
       </c>
       <c r="N11">
-        <v>1.011072416803013</v>
+        <v>1.013654351422117</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035880936380623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03616428231363</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020108999540321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9924346776805857</v>
+        <v>0.9933015956609756</v>
       </c>
       <c r="D12">
-        <v>1.013421754249516</v>
+        <v>1.0140115279225</v>
       </c>
       <c r="E12">
-        <v>1.00132329002148</v>
+        <v>1.002130790432556</v>
       </c>
       <c r="F12">
-        <v>1.01984566236707</v>
+        <v>1.020225849649052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044267753131426</v>
+        <v>1.044698091268724</v>
       </c>
       <c r="J12">
-        <v>1.022562702820567</v>
+        <v>1.023392174560131</v>
       </c>
       <c r="K12">
-        <v>1.02829625428254</v>
+        <v>1.028875123904702</v>
       </c>
       <c r="L12">
-        <v>1.016425181720013</v>
+        <v>1.017217281402046</v>
       </c>
       <c r="M12">
-        <v>1.034602277860816</v>
+        <v>1.034975548901743</v>
       </c>
       <c r="N12">
-        <v>1.011112370901074</v>
+        <v>1.013780667428209</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036773653556212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037068806178114</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020128790197752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9931046192031363</v>
+        <v>0.9938670716880827</v>
       </c>
       <c r="D13">
-        <v>1.013958960872403</v>
+        <v>1.014443213900418</v>
       </c>
       <c r="E13">
-        <v>1.001921009498669</v>
+        <v>1.002625834521799</v>
       </c>
       <c r="F13">
-        <v>1.021031308020165</v>
+        <v>1.021362646828766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044639860182072</v>
+        <v>1.045006033035244</v>
       </c>
       <c r="J13">
-        <v>1.02310999808116</v>
+        <v>1.023839695578904</v>
       </c>
       <c r="K13">
-        <v>1.028780375106988</v>
+        <v>1.029255716081304</v>
       </c>
       <c r="L13">
-        <v>1.016967587755877</v>
+        <v>1.017659034538277</v>
       </c>
       <c r="M13">
-        <v>1.035723656837423</v>
+        <v>1.036049005932299</v>
       </c>
       <c r="N13">
-        <v>1.0113897974912</v>
+        <v>1.013931457674924</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037937357949426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03819455301693</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020251680607116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994156872008129</v>
+        <v>0.9947873504185861</v>
       </c>
       <c r="D14">
-        <v>1.014742430778186</v>
+        <v>1.015090834987732</v>
       </c>
       <c r="E14">
-        <v>1.002789310676084</v>
+        <v>1.003370641423204</v>
       </c>
       <c r="F14">
-        <v>1.022143549699033</v>
+        <v>1.022413387043458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045081624365182</v>
+        <v>1.045365474526992</v>
       </c>
       <c r="J14">
-        <v>1.023810773242526</v>
+        <v>1.024414567663821</v>
       </c>
       <c r="K14">
-        <v>1.029408192211476</v>
+        <v>1.029750266588332</v>
       </c>
       <c r="L14">
-        <v>1.017675715778761</v>
+        <v>1.018246156920493</v>
       </c>
       <c r="M14">
-        <v>1.036676051575942</v>
+        <v>1.036941077731766</v>
       </c>
       <c r="N14">
-        <v>1.011686925794873</v>
+        <v>1.014047395870632</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038863674539345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039073154834069</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020382900095134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9947087168968833</v>
+        <v>0.9952771248807118</v>
       </c>
       <c r="D15">
-        <v>1.015143367828047</v>
+        <v>1.015426929752956</v>
       </c>
       <c r="E15">
-        <v>1.003231483084823</v>
+        <v>1.00375639771104</v>
       </c>
       <c r="F15">
-        <v>1.022591923586127</v>
+        <v>1.022832802739279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045288841277624</v>
+        <v>1.045533524990016</v>
       </c>
       <c r="J15">
-        <v>1.024150855884442</v>
+        <v>1.024695422494391</v>
       </c>
       <c r="K15">
-        <v>1.029714869801564</v>
+        <v>1.029993319992433</v>
       </c>
       <c r="L15">
-        <v>1.018021124317685</v>
+        <v>1.01853628408571</v>
       </c>
       <c r="M15">
-        <v>1.037030371713799</v>
+        <v>1.037266989987392</v>
       </c>
       <c r="N15">
-        <v>1.011815645359715</v>
+        <v>1.01408772725278</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039181287311165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039368308716629</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020440760028379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976023780243951</v>
+        <v>0.9978858871261083</v>
       </c>
       <c r="D16">
-        <v>1.017212484812451</v>
+        <v>1.017190344855151</v>
       </c>
       <c r="E16">
-        <v>1.005499542126714</v>
+        <v>1.005773143025894</v>
       </c>
       <c r="F16">
-        <v>1.02442382082027</v>
+        <v>1.024531087024446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046285704099554</v>
+        <v>1.046347029640797</v>
       </c>
       <c r="J16">
-        <v>1.025834355853053</v>
+        <v>1.026106580662672</v>
       </c>
       <c r="K16">
-        <v>1.031241978576108</v>
+        <v>1.031220219946985</v>
       </c>
       <c r="L16">
-        <v>1.019733817474562</v>
+        <v>1.020002564324979</v>
       </c>
       <c r="M16">
-        <v>1.03833024161116</v>
+        <v>1.03843569401988</v>
       </c>
       <c r="N16">
-        <v>1.012378745946729</v>
+        <v>1.014248741986753</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04016996714077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.040253318369529</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020703884530584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9992769895575958</v>
+        <v>0.999420994646205</v>
       </c>
       <c r="D17">
-        <v>1.01839514479826</v>
+        <v>1.0182169035042</v>
       </c>
       <c r="E17">
-        <v>1.006791636065361</v>
+        <v>1.006945501097618</v>
       </c>
       <c r="F17">
-        <v>1.025245890679084</v>
+        <v>1.025287116619515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046819958545718</v>
+        <v>1.04678877966727</v>
       </c>
       <c r="J17">
-        <v>1.026762980371683</v>
+        <v>1.026901441373818</v>
       </c>
       <c r="K17">
-        <v>1.032088148897416</v>
+        <v>1.031912889680565</v>
       </c>
       <c r="L17">
-        <v>1.020681622074465</v>
+        <v>1.020832836680699</v>
       </c>
       <c r="M17">
-        <v>1.038825288651337</v>
+        <v>1.038865836851353</v>
       </c>
       <c r="N17">
-        <v>1.012656524756664</v>
+        <v>1.014342082742451</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040432173847946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.040464226971755</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020839160879984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000028602701491</v>
+        <v>1.000135540521331</v>
       </c>
       <c r="D18">
-        <v>1.018893453149077</v>
+        <v>1.018667268814663</v>
       </c>
       <c r="E18">
-        <v>1.007331747471487</v>
+        <v>1.007459261638778</v>
       </c>
       <c r="F18">
-        <v>1.025161475272428</v>
+        <v>1.025184333741665</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046978546679911</v>
+        <v>1.046919959969787</v>
       </c>
       <c r="J18">
-        <v>1.027090529504434</v>
+        <v>1.027193428276449</v>
       </c>
       <c r="K18">
-        <v>1.032393839998854</v>
+        <v>1.032171376934157</v>
       </c>
       <c r="L18">
-        <v>1.021025114214431</v>
+        <v>1.021150468831136</v>
       </c>
       <c r="M18">
-        <v>1.038559577035332</v>
+        <v>1.038582065426137</v>
       </c>
       <c r="N18">
-        <v>1.012697736002609</v>
+        <v>1.014334638762845</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039984275743036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.040002056395964</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020864205703839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999031045696729</v>
+        <v>1.000062586590227</v>
       </c>
       <c r="D19">
-        <v>1.018734931911031</v>
+        <v>1.01855811998918</v>
       </c>
       <c r="E19">
-        <v>1.007154794013181</v>
+        <v>1.007337480171626</v>
       </c>
       <c r="F19">
-        <v>1.024185747110191</v>
+        <v>1.024232331617318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046769637455004</v>
+        <v>1.046741675614917</v>
       </c>
       <c r="J19">
-        <v>1.026835124350066</v>
+        <v>1.026988616278351</v>
       </c>
       <c r="K19">
-        <v>1.03217507386415</v>
+        <v>1.032001156362178</v>
       </c>
       <c r="L19">
-        <v>1.020787271693548</v>
+        <v>1.020966879320272</v>
       </c>
       <c r="M19">
-        <v>1.037537288254889</v>
+        <v>1.037583120765928</v>
       </c>
       <c r="N19">
-        <v>1.01251496066263</v>
+        <v>1.014207918844106</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03885003499136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.03888628475065</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020780455042069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9973385944018052</v>
+        <v>0.997797023453503</v>
       </c>
       <c r="D20">
-        <v>1.016755489162448</v>
+        <v>1.016896291310432</v>
       </c>
       <c r="E20">
-        <v>1.004987277378382</v>
+        <v>1.005450116677286</v>
       </c>
       <c r="F20">
-        <v>1.020825260470717</v>
+        <v>1.021012445365261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045552716932408</v>
+        <v>1.045715177696698</v>
       </c>
       <c r="J20">
-        <v>1.024972495675083</v>
+        <v>1.025413131079551</v>
       </c>
       <c r="K20">
-        <v>1.030509975877125</v>
+        <v>1.030648406742823</v>
       </c>
       <c r="L20">
-        <v>1.018942994762063</v>
+        <v>1.019397804580944</v>
       </c>
       <c r="M20">
-        <v>1.034511547042263</v>
+        <v>1.034695611989441</v>
       </c>
       <c r="N20">
-        <v>1.011717671836082</v>
+        <v>1.013747188734537</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035926965115068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.036072633827244</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020399900888143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.991798108119566</v>
+        <v>0.9928557813176174</v>
       </c>
       <c r="D21">
-        <v>1.012754043067488</v>
+        <v>1.013528066828947</v>
       </c>
       <c r="E21">
-        <v>1.000594123248765</v>
+        <v>1.001598930484524</v>
       </c>
       <c r="F21">
-        <v>1.016896732304974</v>
+        <v>1.017367627298742</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043550687198218</v>
+        <v>1.044094888595942</v>
       </c>
       <c r="J21">
-        <v>1.02164279512969</v>
+        <v>1.022655266226819</v>
       </c>
       <c r="K21">
-        <v>1.027497748895194</v>
+        <v>1.028257599688617</v>
       </c>
       <c r="L21">
-        <v>1.015564248518787</v>
+        <v>1.016550073823918</v>
       </c>
       <c r="M21">
-        <v>1.03156490917425</v>
+        <v>1.032027269507223</v>
       </c>
       <c r="N21">
-        <v>1.010543988645851</v>
+        <v>1.013418952249089</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033553864814138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.033919795493586</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019868248376043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9882813940600893</v>
+        <v>0.9897188501881021</v>
       </c>
       <c r="D22">
-        <v>1.010225959696997</v>
+        <v>1.01140087845882</v>
       </c>
       <c r="E22">
-        <v>0.9978206295408741</v>
+        <v>0.9991686577162192</v>
       </c>
       <c r="F22">
-        <v>1.014499152234998</v>
+        <v>1.015150046675061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042286561185103</v>
+        <v>1.043071728776115</v>
       </c>
       <c r="J22">
-        <v>1.019544686627777</v>
+        <v>1.020917020996132</v>
       </c>
       <c r="K22">
-        <v>1.02559752427086</v>
+        <v>1.026749815263362</v>
       </c>
       <c r="L22">
-        <v>1.013435384170167</v>
+        <v>1.014756601668853</v>
       </c>
       <c r="M22">
-        <v>1.029788748174389</v>
+        <v>1.03042723633482</v>
       </c>
       <c r="N22">
-        <v>1.009811364019762</v>
+        <v>1.013212972227707</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032148137342486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.032653463675046</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019535179739439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9901536942124251</v>
+        <v>0.9913717747694279</v>
       </c>
       <c r="D23">
-        <v>1.011571445863813</v>
+        <v>1.012518932962228</v>
       </c>
       <c r="E23">
-        <v>0.999296475365215</v>
+        <v>1.000445274238187</v>
       </c>
       <c r="F23">
-        <v>1.015774427815038</v>
+        <v>1.016321518255981</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042960491193403</v>
+        <v>1.043607941028107</v>
       </c>
       <c r="J23">
-        <v>1.020661952755126</v>
+        <v>1.021826518298576</v>
       </c>
       <c r="K23">
-        <v>1.026609518494723</v>
+        <v>1.027539236299576</v>
       </c>
       <c r="L23">
-        <v>1.014568747137276</v>
+        <v>1.01569530821327</v>
       </c>
       <c r="M23">
-        <v>1.030734006682508</v>
+        <v>1.031270942083939</v>
       </c>
       <c r="N23">
-        <v>1.010201521743943</v>
+        <v>1.013277245704662</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032896254476072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.033321207262808</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019707581770921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9973511905035264</v>
+        <v>0.9978140633078859</v>
       </c>
       <c r="D24">
-        <v>1.016753490924498</v>
+        <v>1.016898188401957</v>
       </c>
       <c r="E24">
-        <v>1.004986175107632</v>
+        <v>1.005454021541207</v>
       </c>
       <c r="F24">
-        <v>1.020702395941087</v>
+        <v>1.020891646096739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045531086617293</v>
+        <v>1.04569601694985</v>
       </c>
       <c r="J24">
-        <v>1.02495158682976</v>
+        <v>1.025396519509273</v>
       </c>
       <c r="K24">
-        <v>1.03049264840842</v>
+        <v>1.030634912127881</v>
       </c>
       <c r="L24">
-        <v>1.018926290102336</v>
+        <v>1.019386030669392</v>
       </c>
       <c r="M24">
-        <v>1.034375453172496</v>
+        <v>1.034561552031466</v>
       </c>
       <c r="N24">
-        <v>1.011698863228836</v>
+        <v>1.01373136215602</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035778240146242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.035925525873433</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020390469758428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005370018207571</v>
+        <v>1.005228049694047</v>
       </c>
       <c r="D25">
-        <v>1.022544075695276</v>
+        <v>1.02198402119132</v>
       </c>
       <c r="E25">
-        <v>1.011355988745342</v>
+        <v>1.011287584461483</v>
       </c>
       <c r="F25">
-        <v>1.026241626913537</v>
+        <v>1.026141707240325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048352053108631</v>
+        <v>1.048106513668974</v>
       </c>
       <c r="J25">
-        <v>1.029718001522484</v>
+        <v>1.029580741055159</v>
       </c>
       <c r="K25">
-        <v>1.034802221191918</v>
+        <v>1.034250386594188</v>
       </c>
       <c r="L25">
-        <v>1.023780538740705</v>
+        <v>1.023713166279625</v>
       </c>
       <c r="M25">
-        <v>1.038445789061158</v>
+        <v>1.038347321704939</v>
       </c>
       <c r="N25">
-        <v>1.013361076974086</v>
+        <v>1.014829712075186</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038999652084332</v>
+        <v>1.038921721607036</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021202936937628</v>
       </c>
     </row>
   </sheetData>
